--- a/biology/Botanique/Amanoa_guianensis/Amanoa_guianensis.xlsx
+++ b/biology/Botanique/Amanoa_guianensis/Amanoa_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amanoa guianensis est une espèce de plantes à fleurs de la famille des Phyllanthaceae (anciennement de Euphorbiaceae). Il s'agit de l'espèce type du genre Amanoa Aubl.. C'est un arbre ou un arbuste tropical originaire d'Amérique du Sud.
-Le nom Amanoa est inspiré de Amanoua, l'ancien nom vernaculaire Galibi d’Amanoa guianensis en Guyane[4].
-On l'appelle aussi Guayabo rebalsero, Hicaquillo, Icaco, Jubey de Arau, Suruauray, Temora-urai au Venezuela[5], Tapoeripa, Kwatto mopierie (Karib), Konoliebie (Arawak) au Suriname[6], et Kunuribi (Arawak) au Guyana[7].
+Le nom Amanoa est inspiré de Amanoua, l'ancien nom vernaculaire Galibi d’Amanoa guianensis en Guyane.
+On l'appelle aussi Guayabo rebalsero, Hicaquillo, Icaco, Jubey de Arau, Suruauray, Temora-urai au Venezuela, Tapoeripa, Kwatto mopierie (Karib), Konoliebie (Arawak) au Suriname, et Kunuribi (Arawak) au Guyana.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Amanoa guianensis est un arbre monoïque, glabre, atteignant 35 m de haut, à tige droite, cylindrique, reposant sur des racines échasses (les plus grosses aplaties, le plus fine rondes).
-L'anatomie de son bois a été étudiée[8].
+L'anatomie de son bois a été étudiée.
 Les pétioles sont noirâtres, longs de 5-10(17) mm. 
 Les stipules sont intrapéliolaires, courtes, de forme ovale-triangulaire, aiguë, oblique.
 Les feuilles sont coriaces, longues de 6-14 cm pour 4-7 cm de large, de forme oblongue, ovale ou elliptique, à l'apex brusquement acuminée, siccité, souvent plissé-falciforme, et à la base obtuse, aiguë ou subcordée.
@@ -536,7 +550,7 @@
 Les pétales sont onguiculés, rhombiques ou orbiculaires, ciliés-denticulés.
 L'ovaire est sub-globuleux, glabre, contenant 3 loges biovulées et avec 3 stigmates sessiles. 
 Le fruit porté sur un pédoncule long de 3–10 mm, est une capsule subglobuleuse, indurée, drupiforme déhiscente en coques bivalve monosperme, de 2-3(4) cm de diamètre, avec le mésocarpe beaucoup plus épais que l'endocarpe. Le péricarpe est épais de 3–6 mm.
-Les graines sont dépourvues de caroncule, longues de 14-17 mm, à base émarginée[6],[5],[9].
+Les graines sont dépourvues de caroncule, longues de 14-17 mm, à base émarginée.
 </t>
         </is>
       </c>
@@ -565,9 +579,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amanoa guianensis est présent dans les basses terres de l'est de l'Amérique centrale et du nord de l'Amérique du Sud[5], les Guyanes et la région amazonienne[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amanoa guianensis est présent dans les basses terres de l'est de l'Amérique centrale et du nord de l'Amérique du Sud, les Guyanes et la région amazonienne.
 </t>
         </is>
       </c>
@@ -596,14 +612,16 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amanoa guianensis est un arbre pionnier de forêt secondaire[10] que l'on retrouve dans les forêts sempervirentes de basse altitude au Venezuela autour de 0-500 m d'altitude[5].
-On le trouve dans les forêts marécageuse du nord-ouest du Guyana (Assakata (en))[7].
-Amanoa guianensis est la plante hôte de Eclipta amanoaphila Peñaherrera-Leiva &amp; Tavakilian, 2003 (Rhinotragini, Cerambycinae)[11].
-Dans les mangroves du Golfe d'Urabá (Caraibes Colombiennes), Amanoa guianensis est une ressource alternative de pollen pour l'abeille exotique Apis mellifera[12].
-Amanoa guianensis est une plante mellifère d'importance pour les mélipones Melipona seminigra merrillae Cockerell, 1919, Scaptotrigona nigrohirta Moure, 1968 et Scaptotrigona sp. Moure, 1942 dans l'Amazonsas (Brésil)[13], et une plante mellifère secondaire pour Apis mellifera dans la plaine côtière du Suriname[14].
-Le pollen de Amanoa guianensis peut être abondant localement et se retrouver dans les sédiments anciens du delta de l'Orénoque (Venezuela)[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amanoa guianensis est un arbre pionnier de forêt secondaire que l'on retrouve dans les forêts sempervirentes de basse altitude au Venezuela autour de 0-500 m d'altitude.
+On le trouve dans les forêts marécageuse du nord-ouest du Guyana (Assakata (en)).
+Amanoa guianensis est la plante hôte de Eclipta amanoaphila Peñaherrera-Leiva &amp; Tavakilian, 2003 (Rhinotragini, Cerambycinae).
+Dans les mangroves du Golfe d'Urabá (Caraibes Colombiennes), Amanoa guianensis est une ressource alternative de pollen pour l'abeille exotique Apis mellifera.
+Amanoa guianensis est une plante mellifère d'importance pour les mélipones Melipona seminigra merrillae Cockerell, 1919, Scaptotrigona nigrohirta Moure, 1968 et Scaptotrigona sp. Moure, 1942 dans l'Amazonsas (Brésil), et une plante mellifère secondaire pour Apis mellifera dans la plaine côtière du Suriname.
+Le pollen de Amanoa guianensis peut être abondant localement et se retrouver dans les sédiments anciens du delta de l'Orénoque (Venezuela).
 </t>
         </is>
       </c>
@@ -632,9 +650,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amanoa guianensis est employé comme bois de feu[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amanoa guianensis est employé comme bois de feu.
 </t>
         </is>
       </c>
@@ -663,9 +683,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant[4] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant : 
 « AMANOA (Guianenſis). (Tabula 101.)
 Arbor trunco ſexaginta-pedali, ad ſumitatem ramoſiſſimo; ramulis foliatis. Folia ovato-acuta, glabra, integerrima, brevi petiolata. Stipule latérales, binæ, exiguæ, deciduæ. Flores minimi, vireſcentes, ſeſſiles, congeſti, in axilla ſquamulæ, remoti, in ſpicam flexuoſam, axillarem, &amp; terminalem alternatim diſpoſiti.
 Florebat Novembri.
